--- a/Excel/镇魂街/national_player玩家全局属性.xlsx
+++ b/Excel/镇魂街/national_player玩家全局属性.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="39">
   <si>
     <t>sheet名</t>
   </si>
@@ -164,6 +164,10 @@
   </si>
   <si>
     <t>national_fame.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每级对应的是总累计经验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +201,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -252,7 +263,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
@@ -284,6 +295,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Grid" xfId="2"/>
@@ -570,8 +582,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -828,14 +840,15 @@
   <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="3"/>
+    <col min="3" max="3" width="10.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -897,7 +910,7 @@
       <c r="F3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -907,6 +920,9 @@
       <c r="C4" s="3">
         <v>0</v>
       </c>
+      <c r="E4" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -916,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.3">
@@ -927,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3">
-        <v>100</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.3">
@@ -938,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3">
-        <v>150</v>
+        <v>948</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.3">
@@ -949,7 +965,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3">
-        <v>200</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.3">
@@ -960,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="3">
-        <v>250</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.3">
@@ -971,7 +987,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>300</v>
+        <v>8046</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.3">
@@ -982,7 +998,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>350</v>
+        <v>16131</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.3">
@@ -993,7 +1009,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="3">
-        <v>400</v>
+        <v>26291</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.3">
@@ -1004,7 +1020,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>450</v>
+        <v>39472</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.3">
@@ -1015,7 +1031,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="3">
-        <v>500</v>
+        <v>66015</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.3">
@@ -1026,7 +1042,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="3">
-        <v>550</v>
+        <v>96770</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.3">
@@ -1037,7 +1053,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="3">
-        <v>600</v>
+        <v>129277</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1048,7 +1064,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="3">
-        <v>650</v>
+        <v>164284</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1059,7 +1075,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="3">
-        <v>700</v>
+        <v>201748</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1070,7 +1086,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="3">
-        <v>750</v>
+        <v>272083</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1081,7 +1097,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="3">
-        <v>800</v>
+        <v>350633</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1092,7 +1108,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="3">
-        <v>850</v>
+        <v>433803</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1103,7 +1119,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="3">
-        <v>900</v>
+        <v>517897</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1114,7 +1130,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="3">
-        <v>950</v>
+        <v>604209</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1125,7 +1141,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="3">
-        <v>1000</v>
+        <v>726310</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1136,7 +1152,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="3">
-        <v>1050</v>
+        <v>854135</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1147,7 +1163,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="3">
-        <v>1100</v>
+        <v>1002570</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1158,7 +1174,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="3">
-        <v>1150</v>
+        <v>1153372</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1169,7 +1185,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="3">
-        <v>1200</v>
+        <v>1306699</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1180,7 +1196,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="3">
-        <v>1250</v>
+        <v>1536385</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1191,7 +1207,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="3">
-        <v>1300</v>
+        <v>1898000</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1202,7 +1218,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="3">
-        <v>1350</v>
+        <v>2312462</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1213,7 +1229,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="3">
-        <v>1400</v>
+        <v>2762013</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1224,7 +1240,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="3">
-        <v>1450</v>
+        <v>3246653</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1235,7 +1251,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="3">
-        <v>1500</v>
+        <v>3815173</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1246,7 +1262,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="3">
-        <v>1550</v>
+        <v>4422076</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1257,7 +1273,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="3">
-        <v>1600</v>
+        <v>5067362</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1268,7 +1284,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="3">
-        <v>1650</v>
+        <v>5962765</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1279,7 +1295,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="3">
-        <v>1700</v>
+        <v>6908438</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1290,7 +1306,7 @@
         <v>36</v>
       </c>
       <c r="C39" s="3">
-        <v>1750</v>
+        <v>7904381</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1301,7 +1317,7 @@
         <v>37</v>
       </c>
       <c r="C40" s="3">
-        <v>1800</v>
+        <v>8950595</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1312,7 +1328,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="3">
-        <v>1850</v>
+        <v>10047079</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1323,7 +1339,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="3">
-        <v>1900</v>
+        <v>11193834</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1334,7 +1350,7 @@
         <v>40</v>
       </c>
       <c r="C43" s="3">
-        <v>1950</v>
+        <v>12332031</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1345,7 +1361,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="3">
-        <v>2000</v>
+        <v>13518028</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1356,7 +1372,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="3">
-        <v>2050</v>
+        <v>14751824</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1367,7 +1383,7 @@
         <v>43</v>
       </c>
       <c r="C46" s="3">
-        <v>2100</v>
+        <v>16033420</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1378,7 +1394,7 @@
         <v>44</v>
       </c>
       <c r="C47" s="3">
-        <v>2150</v>
+        <v>17676494</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1389,7 +1405,7 @@
         <v>45</v>
       </c>
       <c r="C48" s="3">
-        <v>2200</v>
+        <v>19378646</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1400,7 +1416,7 @@
         <v>46</v>
       </c>
       <c r="C49" s="3">
-        <v>2250</v>
+        <v>21139877</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1411,7 +1427,7 @@
         <v>47</v>
       </c>
       <c r="C50" s="3">
-        <v>2300</v>
+        <v>23344106</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1422,7 +1438,7 @@
         <v>48</v>
       </c>
       <c r="C51" s="3">
-        <v>2350</v>
+        <v>25619874</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1433,7 +1449,7 @@
         <v>49</v>
       </c>
       <c r="C52" s="3">
-        <v>2400</v>
+        <v>27967180</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1444,7 +1460,7 @@
         <v>50</v>
       </c>
       <c r="C53" s="3">
-        <v>2450</v>
+        <v>30386025</v>
       </c>
     </row>
   </sheetData>
@@ -1455,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1469,7 +1485,7 @@
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1486,7 +1502,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -1503,7 +1519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
@@ -1520,7 +1536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1536,8 +1552,11 @@
       <c r="E4" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H4" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -1554,7 +1573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1562,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D6" s="3">
         <v>20</v>
@@ -1571,7 +1590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1579,7 +1598,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="D7" s="3">
         <v>25</v>
@@ -1588,7 +1607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1596,7 +1615,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="D8" s="3">
         <v>30</v>
@@ -1605,7 +1624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1613,7 +1632,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="3">
-        <v>100</v>
+        <v>440</v>
       </c>
       <c r="D9" s="3">
         <v>35</v>
@@ -1622,7 +1641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -1630,7 +1649,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>120</v>
+        <v>620</v>
       </c>
       <c r="D10" s="3">
         <v>40</v>
@@ -1639,7 +1658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1647,7 +1666,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>140</v>
+        <v>830</v>
       </c>
       <c r="D11" s="3">
         <v>45</v>
@@ -1656,7 +1675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1664,7 +1683,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="3">
-        <v>160</v>
+        <v>1070</v>
       </c>
       <c r="D12" s="3">
         <v>50</v>
@@ -1673,7 +1692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -1681,7 +1700,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>180</v>
+        <v>1370</v>
       </c>
       <c r="D13" s="3">
         <v>55</v>
@@ -1690,7 +1709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1698,7 +1717,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="3">
-        <v>200</v>
+        <v>1700</v>
       </c>
       <c r="D14" s="3">
         <v>60</v>
@@ -1707,7 +1726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
@@ -1715,7 +1734,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="3">
-        <v>220</v>
+        <v>2060</v>
       </c>
       <c r="D15" s="3">
         <v>65</v>
@@ -1724,7 +1743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1732,7 +1751,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="3">
-        <v>240</v>
+        <v>2450</v>
       </c>
       <c r="D16" s="3">
         <v>70</v>
@@ -1749,7 +1768,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="3">
-        <v>260</v>
+        <v>2870</v>
       </c>
       <c r="D17" s="3">
         <v>75</v>
@@ -1766,7 +1785,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="3">
-        <v>280</v>
+        <v>3320</v>
       </c>
       <c r="D18" s="3">
         <v>80</v>
@@ -1783,7 +1802,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="3">
-        <v>300</v>
+        <v>3800</v>
       </c>
       <c r="D19" s="3">
         <v>85</v>
@@ -1800,7 +1819,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="3">
-        <v>320</v>
+        <v>4310</v>
       </c>
       <c r="D20" s="3">
         <v>90</v>
@@ -1817,7 +1836,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="3">
-        <v>340</v>
+        <v>4850</v>
       </c>
       <c r="D21" s="3">
         <v>95</v>
@@ -1834,7 +1853,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="3">
-        <v>360</v>
+        <v>5420</v>
       </c>
       <c r="D22" s="3">
         <v>100</v>
@@ -1851,7 +1870,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="3">
-        <v>380</v>
+        <v>6140</v>
       </c>
       <c r="D23" s="3">
         <v>105</v>
@@ -1868,7 +1887,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="3">
-        <v>400</v>
+        <v>6890</v>
       </c>
       <c r="D24" s="3">
         <v>110</v>
@@ -1885,7 +1904,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="3">
-        <v>420</v>
+        <v>7670</v>
       </c>
       <c r="D25" s="3">
         <v>115</v>
@@ -1902,7 +1921,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="3">
-        <v>440</v>
+        <v>8480</v>
       </c>
       <c r="D26" s="3">
         <v>120</v>
@@ -1919,7 +1938,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="3">
-        <v>460</v>
+        <v>9320</v>
       </c>
       <c r="D27" s="3">
         <v>125</v>
@@ -1936,7 +1955,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="3">
-        <v>480</v>
+        <v>10190</v>
       </c>
       <c r="D28" s="3">
         <v>130</v>
@@ -1953,7 +1972,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="3">
-        <v>500</v>
+        <v>11090</v>
       </c>
       <c r="D29" s="3">
         <v>135</v>
@@ -1970,7 +1989,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="3">
-        <v>520</v>
+        <v>12020</v>
       </c>
       <c r="D30" s="3">
         <v>140</v>
@@ -1987,7 +2006,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="3">
-        <v>540</v>
+        <v>12980</v>
       </c>
       <c r="D31" s="3">
         <v>145</v>
@@ -2004,7 +2023,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="3">
-        <v>560</v>
+        <v>13970</v>
       </c>
       <c r="D32" s="3">
         <v>150</v>
@@ -2021,7 +2040,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="3">
-        <v>580</v>
+        <v>14990</v>
       </c>
       <c r="D33" s="3">
         <v>155</v>
@@ -2038,7 +2057,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="3">
-        <v>600</v>
+        <v>16040</v>
       </c>
       <c r="D34" s="3">
         <v>160</v>
@@ -2055,7 +2074,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="3">
-        <v>620</v>
+        <v>17120</v>
       </c>
       <c r="D35" s="3">
         <v>165</v>
@@ -2072,7 +2091,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="3">
-        <v>640</v>
+        <v>18230</v>
       </c>
       <c r="D36" s="3">
         <v>170</v>
@@ -2089,7 +2108,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="3">
-        <v>660</v>
+        <v>19370</v>
       </c>
       <c r="D37" s="3">
         <v>175</v>
@@ -2106,7 +2125,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="3">
-        <v>680</v>
+        <v>20540</v>
       </c>
       <c r="D38" s="3">
         <v>180</v>
@@ -2123,7 +2142,7 @@
         <v>36</v>
       </c>
       <c r="C39" s="3">
-        <v>700</v>
+        <v>21740</v>
       </c>
       <c r="D39" s="3">
         <v>185</v>
@@ -2140,7 +2159,7 @@
         <v>37</v>
       </c>
       <c r="C40" s="3">
-        <v>720</v>
+        <v>22970</v>
       </c>
       <c r="D40" s="3">
         <v>190</v>
@@ -2157,7 +2176,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="3">
-        <v>740</v>
+        <v>24230</v>
       </c>
       <c r="D41" s="3">
         <v>195</v>
@@ -2174,7 +2193,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="3">
-        <v>760</v>
+        <v>25520</v>
       </c>
       <c r="D42" s="3">
         <v>200</v>
@@ -2191,7 +2210,7 @@
         <v>40</v>
       </c>
       <c r="C43" s="3">
-        <v>780</v>
+        <v>26840</v>
       </c>
       <c r="D43" s="3">
         <v>205</v>
@@ -2208,7 +2227,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="3">
-        <v>800</v>
+        <v>28190</v>
       </c>
       <c r="D44" s="3">
         <v>210</v>
@@ -2225,7 +2244,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="3">
-        <v>820</v>
+        <v>29570</v>
       </c>
       <c r="D45" s="3">
         <v>215</v>
@@ -2242,7 +2261,7 @@
         <v>43</v>
       </c>
       <c r="C46" s="3">
-        <v>840</v>
+        <v>30980</v>
       </c>
       <c r="D46" s="3">
         <v>220</v>
@@ -2259,7 +2278,7 @@
         <v>44</v>
       </c>
       <c r="C47" s="3">
-        <v>860</v>
+        <v>32420</v>
       </c>
       <c r="D47" s="3">
         <v>225</v>
@@ -2276,7 +2295,7 @@
         <v>45</v>
       </c>
       <c r="C48" s="3">
-        <v>880</v>
+        <v>33890</v>
       </c>
       <c r="D48" s="3">
         <v>230</v>
@@ -2293,7 +2312,7 @@
         <v>46</v>
       </c>
       <c r="C49" s="3">
-        <v>900</v>
+        <v>35390</v>
       </c>
       <c r="D49" s="3">
         <v>235</v>
@@ -2310,7 +2329,7 @@
         <v>47</v>
       </c>
       <c r="C50" s="3">
-        <v>920</v>
+        <v>36920</v>
       </c>
       <c r="D50" s="3">
         <v>240</v>
@@ -2327,7 +2346,7 @@
         <v>48</v>
       </c>
       <c r="C51" s="3">
-        <v>940</v>
+        <v>38480</v>
       </c>
       <c r="D51" s="3">
         <v>245</v>
@@ -2344,7 +2363,7 @@
         <v>49</v>
       </c>
       <c r="C52" s="3">
-        <v>960</v>
+        <v>40070</v>
       </c>
       <c r="D52" s="3">
         <v>250</v>
@@ -2361,7 +2380,7 @@
         <v>50</v>
       </c>
       <c r="C53" s="3">
-        <v>980</v>
+        <v>41690</v>
       </c>
       <c r="D53" s="3">
         <v>255</v>
